--- a/FuseLinks/Consumidores.xlsx
+++ b/FuseLinks/Consumidores.xlsx
@@ -451,52 +451,52 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>I_A_Isolador</t>
+          <t>Tempo Abertura Fase A Isolador</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Tempo_A_Isolador</t>
+          <t>Abertura Fase A Isolador</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>I_B_Isolador</t>
+          <t>Tempo Abertura Fase B Isolador</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Tempo_B_Isolador</t>
+          <t>Abertura Fase B Isolador</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>I_C_Isolador</t>
+          <t>Tempo Abertura Fase C Isolador</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Tempo_C_Isolador</t>
+          <t>Abertura Fase C Isolador</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>I_A_Consumidor</t>
+          <t>Tempo Abertura Fase A Consumidor</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Tempo_A_Consumidor</t>
+          <t>Abertura Fase A Consumidor</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>I_B_Consumidor</t>
+          <t>Tempo Abertura Fase B Consumidor</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Tempo_B_Consumidor</t>
+          <t>Abertura Fase B Consumidor</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">

--- a/FuseLinks/Consumidores.xlsx
+++ b/FuseLinks/Consumidores.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Abertura Fase A Isolador</t>
+          <t>Corrente Fase A Isolador</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -466,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Abertura Fase B Isolador</t>
+          <t>Corrente Fase B Isolador</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Abertura Fase C Isolador</t>
+          <t>Corrente Fase C Isolador</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Abertura Fase A Consumidor</t>
+          <t>Corrente Fase A Consumidor</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Abertura Fase B Consumidor</t>
+          <t>Corrente Fase B Consumidor</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">

--- a/FuseLinks/Consumidores.xlsx
+++ b/FuseLinks/Consumidores.xlsx
@@ -572,7 +572,11 @@
       <c r="M2" t="n">
         <v>0</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O2" t="inlineStr">
         <is>
           <t>1H</t>
@@ -641,7 +645,11 @@
       <c r="M3" t="n">
         <v>0</v>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr">
         <is>
           <t>1H</t>
@@ -710,7 +718,11 @@
       <c r="M4" t="n">
         <v>0</v>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr">
         <is>
           <t>1H</t>
@@ -779,7 +791,11 @@
       <c r="M5" t="n">
         <v>0</v>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr">
         <is>
           <t>1H</t>
@@ -848,7 +864,11 @@
       <c r="M6" t="n">
         <v>0</v>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr">
         <is>
           <t>1H</t>
@@ -911,7 +931,11 @@
       <c r="M7" t="n">
         <v>0</v>
       </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr">
         <is>
           <t>1H</t>
@@ -980,7 +1004,11 @@
       <c r="M8" t="n">
         <v>0</v>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr">
         <is>
           <t>1H</t>
@@ -1049,7 +1077,11 @@
       <c r="M9" t="n">
         <v>0</v>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr">
         <is>
           <t>1H</t>
@@ -1112,7 +1144,11 @@
       <c r="M10" t="n">
         <v>0</v>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr">
         <is>
           <t>1H</t>
@@ -1181,7 +1217,11 @@
       <c r="M11" t="n">
         <v>0</v>
       </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O11" t="inlineStr">
         <is>
           <t>1H</t>
@@ -1244,7 +1284,11 @@
       <c r="M12" t="n">
         <v>0</v>
       </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O12" t="inlineStr">
         <is>
           <t>2H</t>
@@ -1313,7 +1357,11 @@
       <c r="M13" t="n">
         <v>0</v>
       </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O13" t="inlineStr">
         <is>
           <t>2H</t>
@@ -1382,7 +1430,11 @@
       <c r="M14" t="n">
         <v>0</v>
       </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr">
         <is>
           <t>2H</t>
@@ -1445,7 +1497,11 @@
       <c r="M15" t="n">
         <v>0</v>
       </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr">
         <is>
           <t>2H</t>
@@ -1514,7 +1570,11 @@
       <c r="M16" t="n">
         <v>0</v>
       </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O16" t="inlineStr">
         <is>
           <t>2H</t>
@@ -1577,7 +1637,11 @@
       <c r="M17" t="n">
         <v>0</v>
       </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O17" t="inlineStr">
         <is>
           <t>2H</t>
@@ -1646,7 +1710,11 @@
       <c r="M18" t="n">
         <v>0</v>
       </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O18" t="inlineStr">
         <is>
           <t>2H</t>
@@ -1715,7 +1783,11 @@
       <c r="M19" t="n">
         <v>0</v>
       </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O19" t="inlineStr">
         <is>
           <t>2H</t>
@@ -1778,7 +1850,11 @@
       <c r="M20" t="n">
         <v>0</v>
       </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O20" t="inlineStr">
         <is>
           <t>2H</t>
@@ -1847,7 +1923,11 @@
       <c r="M21" t="n">
         <v>0</v>
       </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O21" t="inlineStr">
         <is>
           <t>2H</t>
@@ -1910,7 +1990,11 @@
       <c r="M22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O22" t="inlineStr">
         <is>
           <t>2H</t>
@@ -1979,7 +2063,11 @@
       <c r="M23" t="n">
         <v>11.8737</v>
       </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O23" t="inlineStr">
         <is>
           <t>2H</t>
@@ -2048,7 +2136,11 @@
       <c r="M24" t="n">
         <v>0</v>
       </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O24" t="inlineStr">
         <is>
           <t>2H</t>
@@ -2111,7 +2203,11 @@
       <c r="M25" t="n">
         <v>0</v>
       </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O25" t="inlineStr">
         <is>
           <t>2H</t>
@@ -2180,7 +2276,11 @@
       <c r="M26" t="n">
         <v>0</v>
       </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O26" t="inlineStr">
         <is>
           <t>2H</t>
@@ -2243,7 +2343,11 @@
       <c r="M27" t="n">
         <v>0</v>
       </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O27" t="inlineStr">
         <is>
           <t>2H</t>
@@ -2312,7 +2416,11 @@
       <c r="M28" t="n">
         <v>11.4518</v>
       </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O28" t="inlineStr">
         <is>
           <t>2H</t>
@@ -2381,7 +2489,11 @@
       <c r="M29" t="n">
         <v>0</v>
       </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O29" t="inlineStr">
         <is>
           <t>2H</t>
@@ -2444,7 +2556,11 @@
       <c r="M30" t="n">
         <v>0</v>
       </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O30" t="inlineStr">
         <is>
           <t>2H</t>
@@ -2513,7 +2629,11 @@
       <c r="M31" t="n">
         <v>0</v>
       </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O31" t="inlineStr">
         <is>
           <t>2H</t>
@@ -2582,7 +2702,11 @@
       <c r="M32" t="n">
         <v>0</v>
       </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O32" t="inlineStr">
         <is>
           <t>3H</t>
@@ -2651,7 +2775,11 @@
       <c r="M33" t="n">
         <v>0</v>
       </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr">
         <is>
           <t>3H</t>
@@ -2720,7 +2848,11 @@
       <c r="M34" t="n">
         <v>0</v>
       </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O34" t="inlineStr">
         <is>
           <t>3H</t>
@@ -2789,7 +2921,11 @@
       <c r="M35" t="n">
         <v>0</v>
       </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O35" t="inlineStr">
         <is>
           <t>3H</t>
@@ -2858,7 +2994,11 @@
       <c r="M36" t="n">
         <v>0</v>
       </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O36" t="inlineStr">
         <is>
           <t>3H</t>
@@ -2927,7 +3067,11 @@
       <c r="M37" t="n">
         <v>0</v>
       </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O37" t="inlineStr">
         <is>
           <t>5H</t>
@@ -2996,7 +3140,11 @@
       <c r="M38" t="n">
         <v>12.9663</v>
       </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O38" t="inlineStr">
         <is>
           <t>5H</t>
@@ -3065,7 +3213,11 @@
       <c r="M39" t="n">
         <v>0</v>
       </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O39" t="inlineStr">
         <is>
           <t>5H</t>
@@ -3128,7 +3280,11 @@
       <c r="M40" t="n">
         <v>0</v>
       </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O40" t="inlineStr">
         <is>
           <t>5H</t>
@@ -3197,7 +3353,11 @@
       <c r="M41" t="n">
         <v>0</v>
       </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O41" t="inlineStr">
         <is>
           <t>5H</t>
@@ -3260,7 +3420,11 @@
       <c r="M42" t="n">
         <v>0</v>
       </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O42" t="inlineStr">
         <is>
           <t>5H</t>
@@ -3329,7 +3493,11 @@
       <c r="M43" t="n">
         <v>12.9482</v>
       </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O43" t="inlineStr">
         <is>
           <t>5H</t>
@@ -3398,7 +3566,11 @@
       <c r="M44" t="n">
         <v>0</v>
       </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O44" t="inlineStr">
         <is>
           <t>5H</t>
@@ -3461,7 +3633,11 @@
       <c r="M45" t="n">
         <v>0</v>
       </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O45" t="inlineStr">
         <is>
           <t>5H</t>
@@ -3530,7 +3706,11 @@
       <c r="M46" t="n">
         <v>12.6893</v>
       </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O46" t="inlineStr">
         <is>
           <t>5H</t>
@@ -3593,7 +3773,11 @@
       <c r="M47" t="n">
         <v>0</v>
       </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O47" t="inlineStr">
         <is>
           <t>6K</t>
@@ -3662,7 +3846,11 @@
       <c r="M48" t="n">
         <v>13.1037</v>
       </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O48" t="inlineStr">
         <is>
           <t>6K</t>
@@ -3731,7 +3919,11 @@
       <c r="M49" t="n">
         <v>0</v>
       </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O49" t="inlineStr">
         <is>
           <t>6K</t>
@@ -3794,7 +3986,11 @@
       <c r="M50" t="n">
         <v>0</v>
       </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O50" t="inlineStr">
         <is>
           <t>6K</t>
@@ -3863,7 +4059,11 @@
       <c r="M51" t="n">
         <v>12.8453</v>
       </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O51" t="inlineStr">
         <is>
           <t>6K</t>
@@ -3932,7 +4132,11 @@
       <c r="M52" t="n">
         <v>13.0421</v>
       </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O52" t="inlineStr">
         <is>
           <t>10K</t>
@@ -4001,7 +4205,11 @@
       <c r="M53" t="n">
         <v>13.0376</v>
       </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr">
         <is>
           <t>10K</t>
@@ -4064,7 +4272,11 @@
       <c r="M54" t="n">
         <v>6.35927</v>
       </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O54" t="inlineStr">
         <is>
           <t>10K</t>
@@ -4127,7 +4339,11 @@
       <c r="M55" t="n">
         <v>13.0158</v>
       </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O55" t="inlineStr">
         <is>
           <t>10K</t>
@@ -4196,7 +4412,11 @@
       <c r="M56" t="n">
         <v>12.9611</v>
       </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O56" t="inlineStr">
         <is>
           <t>10K</t>
@@ -4265,7 +4485,11 @@
       <c r="M57" t="n">
         <v>0.00182617</v>
       </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O57" t="inlineStr">
         <is>
           <t>10K</t>
@@ -4334,7 +4558,11 @@
       <c r="M58" t="n">
         <v>13.0935</v>
       </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O58" t="inlineStr">
         <is>
           <t>10K</t>
@@ -4403,7 +4631,11 @@
       <c r="M59" t="n">
         <v>13.0536</v>
       </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O59" t="inlineStr">
         <is>
           <t>10K</t>
@@ -4466,7 +4698,11 @@
       <c r="M60" t="n">
         <v>6.4848</v>
       </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O60" t="inlineStr">
         <is>
           <t>10K</t>
@@ -4535,7 +4771,11 @@
       <c r="M61" t="n">
         <v>13.0793</v>
       </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O61" t="inlineStr">
         <is>
           <t>10K</t>
@@ -4598,7 +4838,11 @@
       <c r="M62" t="n">
         <v>13.0252</v>
       </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O62" t="inlineStr">
         <is>
           <t>12K</t>
@@ -4667,7 +4911,11 @@
       <c r="M63" t="n">
         <v>13.0215</v>
       </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O63" t="inlineStr">
         <is>
           <t>12K</t>
@@ -4736,7 +4984,11 @@
       <c r="M64" t="n">
         <v>13.1416</v>
       </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O64" t="inlineStr">
         <is>
           <t>12K</t>
@@ -4805,7 +5057,11 @@
       <c r="M65" t="n">
         <v>13.0453</v>
       </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O65" t="inlineStr">
         <is>
           <t>12K</t>
@@ -4874,7 +5130,11 @@
       <c r="M66" t="n">
         <v>13.0342</v>
       </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O66" t="inlineStr">
         <is>
           <t>12K</t>
@@ -4943,7 +5203,11 @@
       <c r="M67" t="n">
         <v>13.1277</v>
       </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O67" t="inlineStr">
         <is>
           <t>15K</t>
@@ -5012,7 +5276,11 @@
       <c r="M68" t="n">
         <v>13.1074</v>
       </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O68" t="inlineStr">
         <is>
           <t>15K</t>
@@ -5081,7 +5349,11 @@
       <c r="M69" t="n">
         <v>13.1113</v>
       </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O69" t="inlineStr">
         <is>
           <t>15K</t>
@@ -5150,7 +5422,11 @@
       <c r="M70" t="n">
         <v>13.0987</v>
       </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O70" t="inlineStr">
         <is>
           <t>15K</t>
@@ -5219,7 +5495,11 @@
       <c r="M71" t="n">
         <v>13.0621</v>
       </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
+      </c>
       <c r="O71" t="inlineStr">
         <is>
           <t>15K</t>
